--- a/6.Process/BOM/ESP32_UART.xlsx
+++ b/6.Process/BOM/ESP32_UART.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7820BE0-A0FB-4520-A521-B2D014B4E928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Cubli_Mini\6.Process\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1942B632-B5C3-48F9-8902-3B1B6AA32854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="5490" windowWidth="19995" windowHeight="15435" xr2:uid="{8E631E22-CD6B-407D-8AFB-9EC02D329EC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8E631E22-CD6B-407D-8AFB-9EC02D329EC5}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32_UART" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t>Comment</t>
   </si>
@@ -105,9 +110,6 @@
     <t>D8, D9, D10, D11, D12</t>
   </si>
   <si>
-    <t>BSMD0805-110-6V</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -130,9 +132,6 @@
   </si>
   <si>
     <t>SOT-23-3_L2.9-W1.3-P1.90-LS2.4-BR</t>
-  </si>
-  <si>
-    <t>5.1KΩ (5101) ±1%</t>
   </si>
   <si>
     <t>R1, R3</t>
@@ -311,12 +310,168 @@
       <t>贴片电阻</t>
     </r>
   </si>
+  <si>
+    <t>https://item.szlcsc.com/515057.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>链接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>途径</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/107097.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/16204.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LESD5D5.0CT1G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/356518.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1N5819W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/974466.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/85432.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/85435.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSMD0805-110-6V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/947788.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDR1.27-LI-6P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3809.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS8050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/192557.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1KΩ (5101) ±1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/114625.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/944238.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/103962.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3180374.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不需要</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117-3.3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/184775.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH340C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/85852.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE-C16PIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/2901843.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立创商城</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +500,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -360,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -383,13 +547,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -402,9 +589,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -716,16 +919,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D04628-55A0-4FBA-9BEE-B9B59425750D}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,13 +950,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -764,13 +976,19 @@
       <c r="F2" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -784,10 +1002,16 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
@@ -804,10 +1028,16 @@
       <c r="F4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -824,13 +1054,19 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -839,18 +1075,24 @@
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -859,13 +1101,19 @@
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -884,230 +1132,321 @@
       <c r="F8" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F13" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
       </c>
+      <c r="G19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{7C7A3F07-B235-4B33-A235-528E05A35011}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{D41211C4-E52D-454F-9978-2A2A476ACBDA}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{B40F41B0-3715-4256-8408-7014F7604796}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{74FF25E3-9BEF-47ED-8CE3-C56C69E4A619}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{E156F268-00D2-476E-84B8-6F4ECDCB4150}"/>
+    <hyperlink ref="H6" r:id="rId6" xr:uid="{54A4E80D-1380-48D5-B422-542C4A9D5DF9}"/>
+    <hyperlink ref="H7" r:id="rId7" xr:uid="{7C45421A-3E44-43B5-864A-B7DFBCC94F1E}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{1C540712-632C-4C4E-9ADD-4DEFD09A206F}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{D7BB899A-E5C9-4CAC-ADDD-E66E633F380A}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{F17D9128-BA02-4397-AAD4-AE2C953245F4}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{E9039F93-59CB-4F91-8E3E-366A00EA2993}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{00C99E31-E5AE-4C27-B246-B20C98DF1CA6}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{79380153-EBFF-467E-AF4C-439E20238EAA}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{935290F4-348A-4D9F-9441-388F423121F5}"/>
+    <hyperlink ref="H17" r:id="rId15" xr:uid="{5D039CEF-078D-49F3-AE88-CF50A92D6649}"/>
+    <hyperlink ref="H18" r:id="rId16" xr:uid="{5A3AD0DB-069B-4F34-A365-F11A7779A8DC}"/>
+    <hyperlink ref="H19" r:id="rId17" xr:uid="{4B4D313E-031A-487E-B579-73AF522E215D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>